--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_17.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_17.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_0</t>
+          <t>model_1_17_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998720042715084</v>
+        <v>0.9353252162707754</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8286640130731849</v>
+        <v>0.7430536491065548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8227332634366455</v>
+        <v>0.6654710763571121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999924381116422</v>
+        <v>0.9256935314873789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005327856369268554</v>
+        <v>0.2692105138847796</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14572453350929</v>
+        <v>1.718201431553625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6340728381711662</v>
+        <v>1.19659056276913</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003559607672664605</v>
+        <v>0.3822992279263945</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04890974004967707</v>
+        <v>1.329925799354911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02308214974665175</v>
+        <v>0.5188550027558563</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008191726623465</v>
+        <v>0.911932209389992</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02344567053147692</v>
+        <v>0.5270264503845431</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0747827936426</v>
+        <v>36.62452325187729</v>
       </c>
       <c r="O2" t="n">
-        <v>286.4099553368591</v>
+        <v>73.58910684010311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_1</t>
+          <t>model_1_17_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998747688936825</v>
+        <v>0.9353516552633898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.82865372454311</v>
+        <v>0.7429467030426009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8226864704628232</v>
+        <v>0.6658703017012858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999278532677091</v>
+        <v>0.9261740004786688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005212778233203727</v>
+        <v>0.2691004608721842</v>
       </c>
       <c r="G3" t="n">
-        <v>1.145793332957274</v>
+        <v>1.718916580375726</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6342402139253163</v>
+        <v>1.195162556861435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003396163096691209</v>
+        <v>0.3798272638014742</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04965163255069382</v>
+        <v>1.328518705170485</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02283150944025324</v>
+        <v>0.5187489381889704</v>
       </c>
       <c r="L3" t="n">
-        <v>1.008014790804317</v>
+        <v>0.9119682114224883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02319108289080101</v>
+        <v>0.5269187154067545</v>
       </c>
       <c r="N3" t="n">
-        <v>145.1184548164063</v>
+        <v>36.62534101721584</v>
       </c>
       <c r="O3" t="n">
-        <v>286.4536273596227</v>
+        <v>73.58992460544165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_2</t>
+          <t>model_1_17_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998768737343597</v>
+        <v>0.935386428621415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8286343515352683</v>
+        <v>0.7423505489360174</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8225632690638274</v>
+        <v>0.6664876274597089</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999277401182606</v>
+        <v>0.9269029698581887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000512516367808729</v>
+        <v>0.2689557158410663</v>
       </c>
       <c r="G4" t="n">
-        <v>1.145922880349917</v>
+        <v>1.722903065631487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6346808981858969</v>
+        <v>1.19295441841816</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003401489380627518</v>
+        <v>0.3760767904368962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05059326540471962</v>
+        <v>1.32632575632888</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02263882434687652</v>
+        <v>0.5186094058547978</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007880081000977</v>
+        <v>0.912015562378097</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02299536319981804</v>
+        <v>0.5267769855777998</v>
       </c>
       <c r="N4" t="n">
-        <v>145.1523558205479</v>
+        <v>36.6264170761173</v>
       </c>
       <c r="O4" t="n">
-        <v>286.4875283637643</v>
+        <v>73.59100066434311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_7</t>
+          <t>model_1_17_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999847543707556</v>
+        <v>0.9353966829180291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.828580202664563</v>
+        <v>0.7422615677938813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.820297129070625</v>
+        <v>0.6666982913853108</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996745471077487</v>
+        <v>0.927148027704342</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006346033873981835</v>
+        <v>0.2689130320576525</v>
       </c>
       <c r="G5" t="n">
-        <v>1.146284974097656</v>
+        <v>1.723498082938671</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6427867495432351</v>
+        <v>1.192200885771278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001532004385059814</v>
+        <v>0.37481599272632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08377415072420608</v>
+        <v>1.325571357962559</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02519133556201782</v>
+        <v>0.5185682520726201</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009757202716415</v>
+        <v>0.9120295256756141</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02558807391502271</v>
+        <v>0.5267351836646916</v>
       </c>
       <c r="N5" t="n">
-        <v>144.7250206819633</v>
+        <v>36.62673450510844</v>
       </c>
       <c r="O5" t="n">
-        <v>286.0601932251798</v>
+        <v>73.59131809333427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_4</t>
+          <t>model_1_17_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998440064508201</v>
+        <v>0.9354061612101111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8284964827168949</v>
+        <v>0.7421760279834784</v>
       </c>
       <c r="D6" t="n">
-        <v>0.820797032118886</v>
+        <v>0.6669114686664525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997057068527696</v>
+        <v>0.9273942571148621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006493273129951727</v>
+        <v>0.2688735784138208</v>
       </c>
       <c r="G6" t="n">
-        <v>1.146844809773207</v>
+        <v>1.724070088044711</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6409986253256497</v>
+        <v>1.191438362997364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00138532611872406</v>
+        <v>0.3735491674361554</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0786887195545099</v>
+        <v>1.324806227170105</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02548190167540823</v>
+        <v>0.5185302097407833</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009983587147516</v>
+        <v>0.9120424322861087</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02588321615423947</v>
+        <v>0.5266965422041567</v>
       </c>
       <c r="N6" t="n">
-        <v>144.6791472680818</v>
+        <v>36.62702795714414</v>
       </c>
       <c r="O6" t="n">
-        <v>286.0143198112982</v>
+        <v>73.59161154536996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_5</t>
+          <t>model_1_17_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998412288833565</v>
+        <v>0.9354363953346808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8284490895219319</v>
+        <v>0.7418564019327416</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8207666061426246</v>
+        <v>0.6677891116757482</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996879627395051</v>
+        <v>0.9283898295071483</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006608890117147704</v>
+        <v>0.2687477280631443</v>
       </c>
       <c r="G7" t="n">
-        <v>1.147161728286151</v>
+        <v>1.72620742891773</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6411074572785372</v>
+        <v>1.188299084841778</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001468852982296282</v>
+        <v>0.3684270486686457</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07964918549856535</v>
+        <v>1.321630283460124</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02570776170176568</v>
+        <v>0.5184088425780798</v>
       </c>
       <c r="L7" t="n">
-        <v>1.010161351465186</v>
+        <v>0.9120836021578632</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02611263325023486</v>
+        <v>0.5265732636299633</v>
       </c>
       <c r="N7" t="n">
-        <v>144.6438492837419</v>
+        <v>36.62796430658906</v>
       </c>
       <c r="O7" t="n">
-        <v>285.9790218269583</v>
+        <v>73.59254789481489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_6</t>
+          <t>model_1_17_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998364258251126</v>
+        <v>0.9354419472070714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8284296000817792</v>
+        <v>0.7417746972042332</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8206349204525485</v>
+        <v>0.6680151000463399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996623903456101</v>
+        <v>0.928641457964076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006808818698813384</v>
+        <v>0.2687246182461009</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147292054262192</v>
+        <v>1.726753788813482</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6415784893563647</v>
+        <v>1.187490737543731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001589229910928243</v>
+        <v>0.3671324458334774</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08127911465543813</v>
+        <v>1.32080624108396</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02609371322524524</v>
+        <v>0.5183865529178983</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010468747192796</v>
+        <v>0.91209116215431</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02650466312439924</v>
+        <v>0.5265506229299154</v>
       </c>
       <c r="N8" t="n">
-        <v>144.5842434650557</v>
+        <v>36.62813629547158</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9194160082721</v>
+        <v>73.59271988369741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_8</t>
+          <t>model_1_17_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998520410897045</v>
+        <v>0.9354466689363935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8283109444117331</v>
+        <v>0.7416957290861692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8201056662375507</v>
+        <v>0.6682433582718283</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996446285194954</v>
+        <v>0.9288941498532663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006158829141393388</v>
+        <v>0.2687049639217423</v>
       </c>
       <c r="G9" t="n">
-        <v>1.14808550527415</v>
+        <v>1.72728184898259</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6434716009954892</v>
+        <v>1.186674271106331</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001672840154199036</v>
+        <v>0.3658323717474065</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08361192674978879</v>
+        <v>1.319968628054649</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02481698841800388</v>
+        <v>0.5183675953623473</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009469370258913</v>
+        <v>0.9120975917431742</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02520783117770041</v>
+        <v>0.5265313668118151</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7849073738926</v>
+        <v>36.62828257937571</v>
       </c>
       <c r="O9" t="n">
-        <v>286.120079917109</v>
+        <v>73.59286616760153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_3</t>
+          <t>model_1_17_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998667422089451</v>
+        <v>0.9344629213933657</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8282943784145862</v>
+        <v>0.7403891285589405</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8217580172889951</v>
+        <v>0.6713464745300457</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998460308207846</v>
+        <v>0.9326363546618841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005546891128270352</v>
+        <v>0.272799839332539</v>
       </c>
       <c r="G10" t="n">
-        <v>1.148196282173351</v>
+        <v>1.736019092724511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.637561237093291</v>
+        <v>1.175574604179706</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007247791103971649</v>
+        <v>0.3465791083678666</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06641791295708965</v>
+        <v>1.321862594071747</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02355183884173453</v>
+        <v>0.522302440481125</v>
       </c>
       <c r="L10" t="n">
-        <v>1.008528498627513</v>
+        <v>0.9107580206207533</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02392275676029041</v>
+        <v>0.5305281818078114</v>
       </c>
       <c r="N10" t="n">
-        <v>144.9942055164657</v>
+        <v>36.59803388393994</v>
       </c>
       <c r="O10" t="n">
-        <v>286.3293780596821</v>
+        <v>73.56261747216577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_9</t>
+          <t>model_1_17_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998436975616372</v>
+        <v>0.9344409075813114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8282367216934672</v>
+        <v>0.7402418738431339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8197710935984283</v>
+        <v>0.6715853959398024</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995776033228162</v>
+        <v>0.9329690097480556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000650613072465421</v>
+        <v>0.2728914724129143</v>
       </c>
       <c r="G11" t="n">
-        <v>1.148581832932958</v>
+        <v>1.737003785687155</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6446683479259939</v>
+        <v>1.174719996150466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00198834785951321</v>
+        <v>0.3448676317608523</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08727926803759356</v>
+        <v>1.320859439739356</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02550711807447915</v>
+        <v>0.5223901534417683</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010003356055222</v>
+        <v>0.910728044366041</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02590882968638861</v>
+        <v>0.5306172761599042</v>
       </c>
       <c r="N11" t="n">
-        <v>144.6751909023779</v>
+        <v>36.59736219956994</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0103634455943</v>
+        <v>73.56194578779576</v>
       </c>
     </row>
   </sheetData>
